--- a/DataManager/Data/vb/Womens/LowerThirds.xlsx
+++ b/DataManager/Data/vb/Womens/LowerThirds.xlsx
@@ -53,7 +53,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
